--- a/apps/load_data/2020/01/PLMOVMAE.xlsx
+++ b/apps/load_data/2020/01/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2020\HHY0120\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020-m\HHY0120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DC4C4B7-951C-4BC9-81B4-BB5FE83257BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9790B8E-88F7-4308-8CD4-ABE1B169C2AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25770" windowHeight="11235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25770" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$265</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$265</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11654" uniqueCount="3305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11633" uniqueCount="3302">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7171,9 +7172,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8536,9 +8534,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8873,9 +8868,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9943,7 +9935,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10783,10 +10775,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE212" sqref="AE212"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -43908,12 +43902,7 @@
       <c r="AB173" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2382</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>106</v>
       </c>
@@ -43966,7 +43955,7 @@
         <v>20</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BE173" s="1" t="s">
         <v>113</v>
@@ -43978,10 +43967,10 @@
         <v>115</v>
       </c>
       <c r="BH173" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="BI173" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="BI173" s="1" t="s">
-        <v>2385</v>
       </c>
       <c r="BM173" s="1" t="s">
         <v>118</v>
@@ -43996,13 +43985,13 @@
         <v>163</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="BS173" s="3">
         <v>36225</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>122</v>
@@ -44023,19 +44012,19 @@
         <v>101</v>
       </c>
       <c r="CC173" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="CD173" s="1" t="s">
         <v>2388</v>
       </c>
-      <c r="CD173" s="1" t="s">
+      <c r="CE173" s="1" t="s">
         <v>2389</v>
       </c>
-      <c r="CE173" s="1" t="s">
+      <c r="CG173" s="1" t="s">
         <v>2390</v>
       </c>
-      <c r="CG173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2392</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>130</v>
@@ -44073,13 +44062,13 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2394</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2395</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
@@ -44111,12 +44100,7 @@
       <c r="AB174" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2382</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>106</v>
       </c>
@@ -44163,7 +44147,7 @@
         <v>101</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="BB174" s="1">
         <v>1</v>
@@ -44172,7 +44156,7 @@
         <v>20</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="BE174" s="1" t="s">
         <v>113</v>
@@ -44184,10 +44168,10 @@
         <v>115</v>
       </c>
       <c r="BH174" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="BI174" s="1" t="s">
         <v>2398</v>
-      </c>
-      <c r="BI174" s="1" t="s">
-        <v>2399</v>
       </c>
       <c r="BM174" s="1" t="s">
         <v>118</v>
@@ -44199,13 +44183,13 @@
         <v>102</v>
       </c>
       <c r="BR174" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BS174" s="3">
         <v>36949</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>122</v>
@@ -44229,19 +44213,19 @@
         <v>101</v>
       </c>
       <c r="CC174" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="CD174" s="1" t="s">
         <v>2084</v>
       </c>
       <c r="CE174" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="CG174" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="CG174" s="1" t="s">
+      <c r="CH174" s="1" t="s">
         <v>2404</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2405</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>130</v>
@@ -44279,13 +44263,13 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2406</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2407</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2408</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
@@ -44317,12 +44301,7 @@
       <c r="AB175" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2382</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>106</v>
       </c>
@@ -44369,7 +44348,7 @@
         <v>101</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="BB175" s="1">
         <v>1</v>
@@ -44378,7 +44357,7 @@
         <v>20</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="BE175" s="1" t="s">
         <v>113</v>
@@ -44390,10 +44369,10 @@
         <v>115</v>
       </c>
       <c r="BH175" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="BI175" s="1" t="s">
         <v>2411</v>
-      </c>
-      <c r="BI175" s="1" t="s">
-        <v>2412</v>
       </c>
       <c r="BM175" s="1" t="s">
         <v>118</v>
@@ -44408,13 +44387,13 @@
         <v>163</v>
       </c>
       <c r="BR175" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BS175" s="3">
         <v>36825</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>122</v>
@@ -44438,19 +44417,19 @@
         <v>101</v>
       </c>
       <c r="CC175" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="CD175" s="1" t="s">
         <v>2415</v>
       </c>
-      <c r="CD175" s="1" t="s">
+      <c r="CE175" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="CE175" s="1" t="s">
+      <c r="CG175" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="CG175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2418</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2419</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>130</v>
@@ -44488,13 +44467,13 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2420</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2421</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2422</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
@@ -44523,12 +44502,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2382</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>106</v>
       </c>
@@ -44578,7 +44552,7 @@
         <v>101</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="BB176" s="1">
         <v>1</v>
@@ -44587,7 +44561,7 @@
         <v>20</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BE176" s="1" t="s">
         <v>113</v>
@@ -44599,10 +44573,10 @@
         <v>115</v>
       </c>
       <c r="BH176" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="BI176" s="1" t="s">
         <v>2425</v>
-      </c>
-      <c r="BI176" s="1" t="s">
-        <v>2426</v>
       </c>
       <c r="BM176" s="1" t="s">
         <v>118</v>
@@ -44611,7 +44585,7 @@
         <v>105</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>122</v>
@@ -44629,19 +44603,19 @@
         <v>101</v>
       </c>
       <c r="CC176" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="CD176" s="1" t="s">
         <v>1278</v>
       </c>
       <c r="CE176" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="CG176" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="CG176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="CH176" s="1" t="s">
-        <v>2431</v>
       </c>
       <c r="CI176" s="1" t="s">
         <v>130</v>
@@ -44679,13 +44653,13 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2432</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2433</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2434</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
@@ -44717,12 +44691,7 @@
       <c r="AB177" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2382</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>106</v>
       </c>
@@ -44772,7 +44741,7 @@
         <v>101</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BB177" s="1">
         <v>1</v>
@@ -44781,7 +44750,7 @@
         <v>20</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="BE177" s="1" t="s">
         <v>113</v>
@@ -44793,10 +44762,10 @@
         <v>115</v>
       </c>
       <c r="BH177" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="BI177" s="1" t="s">
         <v>2437</v>
-      </c>
-      <c r="BI177" s="1" t="s">
-        <v>2438</v>
       </c>
       <c r="BM177" s="1" t="s">
         <v>118</v>
@@ -44805,7 +44774,7 @@
         <v>105</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>122</v>
@@ -44826,16 +44795,16 @@
         <v>701</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2440</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2441</v>
       </c>
-      <c r="CG177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2442</v>
-      </c>
-      <c r="CH177" s="1" t="s">
-        <v>2443</v>
       </c>
       <c r="CI177" s="1" t="s">
         <v>130</v>
@@ -44873,13 +44842,13 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2444</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2445</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2446</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
@@ -44908,12 +44877,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2382</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>106</v>
       </c>
@@ -44963,7 +44927,7 @@
         <v>101</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="BB178" s="1">
         <v>1</v>
@@ -44972,7 +44936,7 @@
         <v>20</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BE178" s="1" t="s">
         <v>113</v>
@@ -44984,7 +44948,7 @@
         <v>115</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>981</v>
@@ -44996,7 +44960,7 @@
         <v>105</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>122</v>
@@ -45014,16 +44978,16 @@
         <v>101</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="CD178" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2451</v>
       </c>
-      <c r="CD178" s="1" t="s">
-        <v>2451</v>
-      </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2452</v>
-      </c>
-      <c r="CG178" s="1" t="s">
-        <v>2453</v>
       </c>
       <c r="CH178" s="1" t="s">
         <v>986</v>
@@ -45064,13 +45028,13 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2455</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2456</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
@@ -45105,12 +45069,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2382</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>106</v>
       </c>
@@ -45157,7 +45116,7 @@
         <v>101</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BB179" s="1">
         <v>1</v>
@@ -45166,7 +45125,7 @@
         <v>20</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BE179" s="1" t="s">
         <v>113</v>
@@ -45178,7 +45137,7 @@
         <v>115</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>426</v>
@@ -45193,13 +45152,13 @@
         <v>119</v>
       </c>
       <c r="BR179" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BS179" s="3">
         <v>35243</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>122</v>
@@ -45217,16 +45176,16 @@
         <v>101</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2462</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="CG179" s="1" t="s">
-        <v>2465</v>
       </c>
       <c r="CH179" s="1" t="s">
         <v>433</v>
@@ -45267,13 +45226,13 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2467</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2468</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
@@ -45302,12 +45261,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2382</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>106</v>
       </c>
@@ -45357,7 +45311,7 @@
         <v>101</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BB180" s="1">
         <v>1</v>
@@ -45366,7 +45320,7 @@
         <v>20</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BE180" s="1" t="s">
         <v>113</v>
@@ -45378,7 +45332,7 @@
         <v>115</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>1198</v>
@@ -45390,7 +45344,7 @@
         <v>105</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>122</v>
@@ -45408,16 +45362,16 @@
         <v>101</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2476</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>1205</v>
@@ -45458,13 +45412,13 @@
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2478</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2479</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
@@ -45493,12 +45447,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2382</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>106</v>
       </c>
@@ -45548,7 +45497,7 @@
         <v>101</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BB181" s="1">
         <v>1</v>
@@ -45557,7 +45506,7 @@
         <v>20</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BE181" s="1" t="s">
         <v>113</v>
@@ -45569,10 +45518,10 @@
         <v>115</v>
       </c>
       <c r="BH181" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="BI181" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="BI181" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="BM181" s="1" t="s">
         <v>118</v>
@@ -45584,7 +45533,7 @@
         <v>163</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>122</v>
@@ -45602,19 +45551,19 @@
         <v>101</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="CD181" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="CD181" s="1" t="s">
+      <c r="CE181" s="1" t="s">
         <v>2486</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CG181" s="1" t="s">
         <v>2487</v>
       </c>
-      <c r="CG181" s="1" t="s">
+      <c r="CH181" s="1" t="s">
         <v>2488</v>
-      </c>
-      <c r="CH181" s="1" t="s">
-        <v>2489</v>
       </c>
       <c r="CI181" s="1" t="s">
         <v>130</v>
@@ -45652,13 +45601,13 @@
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2490</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2491</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2492</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
@@ -45687,12 +45636,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2382</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>106</v>
       </c>
@@ -45739,7 +45683,7 @@
         <v>101</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BB182" s="1">
         <v>1</v>
@@ -45748,7 +45692,7 @@
         <v>20</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BE182" s="1" t="s">
         <v>113</v>
@@ -45760,7 +45704,7 @@
         <v>115</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BI182" s="1" t="s">
         <v>470</v>
@@ -45775,13 +45719,13 @@
         <v>232</v>
       </c>
       <c r="BR182" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BS182" s="3">
         <v>34307</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>122</v>
@@ -45799,16 +45743,16 @@
         <v>101</v>
       </c>
       <c r="CC182" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="CD182" s="1" t="s">
         <v>430</v>
       </c>
       <c r="CE182" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="CG182" s="1" t="s">
         <v>2499</v>
-      </c>
-      <c r="CG182" s="1" t="s">
-        <v>2500</v>
       </c>
       <c r="CH182" s="1" t="s">
         <v>477</v>
@@ -45825,13 +45769,13 @@
         <v>88</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>2502</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>2503</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>101</v>
@@ -45843,19 +45787,19 @@
         <v>94</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2506</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2507</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
@@ -45887,12 +45831,7 @@
       <c r="AA183" s="1">
         <v>0</v>
       </c>
-      <c r="AC183" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD183" s="1" t="s">
-        <v>2382</v>
-      </c>
+      <c r="AC183" s="3"/>
       <c r="AF183" s="1" t="s">
         <v>106</v>
       </c>
@@ -45942,7 +45881,7 @@
         <v>101</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BB183" s="1">
         <v>1</v>
@@ -45951,7 +45890,7 @@
         <v>20</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="BE183" s="1" t="s">
         <v>113</v>
@@ -45963,7 +45902,7 @@
         <v>115</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>383</v>
@@ -45975,7 +45914,7 @@
         <v>105</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>122</v>
@@ -45996,16 +45935,16 @@
         <v>101</v>
       </c>
       <c r="CC183" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="CD183" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="CD183" s="1" t="s">
+      <c r="CE183" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CG183" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="CG183" s="1" t="s">
-        <v>2515</v>
       </c>
       <c r="CH183" s="1" t="s">
         <v>390</v>
@@ -46046,13 +45985,13 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2517</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2518</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
@@ -46081,12 +46020,7 @@
       <c r="AA184" s="1">
         <v>0</v>
       </c>
-      <c r="AC184" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD184" s="1" t="s">
-        <v>2382</v>
-      </c>
+      <c r="AC184" s="3"/>
       <c r="AF184" s="1" t="s">
         <v>106</v>
       </c>
@@ -46133,7 +46067,7 @@
         <v>101</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BB184" s="1">
         <v>1</v>
@@ -46142,7 +46076,7 @@
         <v>20</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BE184" s="1" t="s">
         <v>113</v>
@@ -46154,10 +46088,10 @@
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2521</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2522</v>
       </c>
       <c r="BM184" s="1" t="s">
         <v>118</v>
@@ -46169,13 +46103,13 @@
         <v>119</v>
       </c>
       <c r="BR184" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="BS184" s="3">
         <v>35950</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>122</v>
@@ -46193,19 +46127,19 @@
         <v>101</v>
       </c>
       <c r="CC184" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="CD184" s="1" t="s">
         <v>1876</v>
       </c>
       <c r="CE184" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="CG184" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="CG184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2527</v>
-      </c>
-      <c r="CH184" s="1" t="s">
-        <v>2528</v>
       </c>
       <c r="CI184" s="1" t="s">
         <v>130</v>
@@ -46219,13 +46153,13 @@
         <v>88</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>2502</v>
-      </c>
       <c r="E185" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>101</v>
@@ -46237,16 +46171,16 @@
         <v>94</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2531</v>
-      </c>
-      <c r="L185" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>1705</v>
@@ -46315,7 +46249,7 @@
         <v>0</v>
       </c>
       <c r="BZ185" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="CA185" s="1" t="s">
         <v>124</v>
@@ -46324,10 +46258,10 @@
         <v>101</v>
       </c>
       <c r="CC185" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="CE185" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="186" spans="1:87" x14ac:dyDescent="0.25">
@@ -46362,13 +46296,13 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2536</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2537</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
@@ -46449,7 +46383,7 @@
         <v>101</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BB186" s="1">
         <v>1</v>
@@ -46458,7 +46392,7 @@
         <v>20</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BE186" s="1" t="s">
         <v>113</v>
@@ -46470,7 +46404,7 @@
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BI186" s="1" t="s">
         <v>1954</v>
@@ -46485,7 +46419,7 @@
         <v>163</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>122</v>
@@ -46503,16 +46437,16 @@
         <v>101</v>
       </c>
       <c r="CC186" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="CD186" s="1" t="s">
         <v>430</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="CG186" s="1" t="s">
         <v>2543</v>
-      </c>
-      <c r="CG186" s="1" t="s">
-        <v>2544</v>
       </c>
       <c r="CH186" s="1" t="s">
         <v>1961</v>
@@ -46553,13 +46487,13 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2546</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2547</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
@@ -46634,7 +46568,7 @@
         <v>101</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="BB187" s="1">
         <v>1</v>
@@ -46643,7 +46577,7 @@
         <v>20</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="BE187" s="1" t="s">
         <v>113</v>
@@ -46655,10 +46589,10 @@
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2550</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2551</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>118</v>
@@ -46670,13 +46604,13 @@
         <v>232</v>
       </c>
       <c r="BR187" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BS187" s="3">
         <v>36099</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>122</v>
@@ -46694,19 +46628,19 @@
         <v>101</v>
       </c>
       <c r="CC187" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="CD187" s="1" t="s">
         <v>2554</v>
       </c>
-      <c r="CD187" s="1" t="s">
+      <c r="CE187" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="CE187" s="1" t="s">
+      <c r="CG187" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="CG187" s="1" t="s">
+      <c r="CH187" s="1" t="s">
         <v>2557</v>
-      </c>
-      <c r="CH187" s="1" t="s">
-        <v>2558</v>
       </c>
       <c r="CI187" s="1" t="s">
         <v>130</v>
@@ -46744,13 +46678,13 @@
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2560</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2561</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
@@ -46825,7 +46759,7 @@
         <v>101</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="BB188" s="1">
         <v>1</v>
@@ -46834,7 +46768,7 @@
         <v>20</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BE188" s="1" t="s">
         <v>113</v>
@@ -46846,10 +46780,10 @@
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="BI188" s="1" t="s">
         <v>2564</v>
-      </c>
-      <c r="BI188" s="1" t="s">
-        <v>2565</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>118</v>
@@ -46861,13 +46795,13 @@
         <v>102</v>
       </c>
       <c r="BR188" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BS188" s="3">
         <v>37735</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>122</v>
@@ -46885,19 +46819,19 @@
         <v>101</v>
       </c>
       <c r="CC188" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="CD188" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="CD188" s="1" t="s">
+      <c r="CE188" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CG188" s="1" t="s">
         <v>2570</v>
       </c>
-      <c r="CG188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2571</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2572</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>130</v>
@@ -46935,13 +46869,13 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2574</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2575</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
@@ -47019,7 +46953,7 @@
         <v>101</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="BB189" s="1">
         <v>1</v>
@@ -47028,7 +46962,7 @@
         <v>20</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BE189" s="1" t="s">
         <v>113</v>
@@ -47040,7 +46974,7 @@
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="BI189" s="1" t="s">
         <v>383</v>
@@ -47052,7 +46986,7 @@
         <v>105</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>122</v>
@@ -47070,16 +47004,16 @@
         <v>101</v>
       </c>
       <c r="CC189" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="CD189" s="1" t="s">
         <v>907</v>
       </c>
       <c r="CE189" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="CG189" s="1" t="s">
         <v>2581</v>
-      </c>
-      <c r="CG189" s="1" t="s">
-        <v>2582</v>
       </c>
       <c r="CH189" s="1" t="s">
         <v>390</v>
@@ -47102,7 +47036,7 @@
         <v>188</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>101</v>
@@ -47114,19 +47048,19 @@
         <v>94</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2586</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2587</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
@@ -47159,7 +47093,7 @@
         <v>106</v>
       </c>
       <c r="AG190" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="AH190" s="1" t="s">
         <v>2003</v>
@@ -47204,7 +47138,7 @@
         <v>101</v>
       </c>
       <c r="AZ190" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BB190" s="1">
         <v>1</v>
@@ -47213,7 +47147,7 @@
         <v>20</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BE190" s="1" t="s">
         <v>113</v>
@@ -47225,7 +47159,7 @@
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>118</v>
@@ -47234,7 +47168,7 @@
         <v>105</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>122</v>
@@ -47243,7 +47177,7 @@
         <v>0</v>
       </c>
       <c r="BZ190" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="CA190" s="1" t="s">
         <v>124</v>
@@ -47255,13 +47189,13 @@
         <v>1654</v>
       </c>
       <c r="CD190" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="CE190" s="1" t="s">
         <v>2594</v>
       </c>
-      <c r="CE190" s="1" t="s">
+      <c r="CG190" s="1" t="s">
         <v>2595</v>
-      </c>
-      <c r="CG190" s="1" t="s">
-        <v>2596</v>
       </c>
       <c r="CH190" s="1" t="s">
         <v>130</v>
@@ -47302,13 +47236,13 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2597</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2598</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2599</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
@@ -47386,7 +47320,7 @@
         <v>101</v>
       </c>
       <c r="AZ191" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BB191" s="1">
         <v>1</v>
@@ -47395,7 +47329,7 @@
         <v>20</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="BE191" s="1" t="s">
         <v>113</v>
@@ -47407,10 +47341,10 @@
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="BI191" s="1" t="s">
         <v>2602</v>
-      </c>
-      <c r="BI191" s="1" t="s">
-        <v>2603</v>
       </c>
       <c r="BM191" s="1" t="s">
         <v>118</v>
@@ -47422,13 +47356,13 @@
         <v>102</v>
       </c>
       <c r="BR191" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="BS191" s="3">
         <v>43602</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>122</v>
@@ -47452,13 +47386,13 @@
         <v>997</v>
       </c>
       <c r="CE191" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="CG191" s="1" t="s">
         <v>2606</v>
       </c>
-      <c r="CG191" s="1" t="s">
+      <c r="CH191" s="1" t="s">
         <v>2607</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2608</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>130</v>
@@ -47496,13 +47430,13 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2610</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2611</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
@@ -47580,7 +47514,7 @@
         <v>101</v>
       </c>
       <c r="AZ192" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="BB192" s="1">
         <v>1</v>
@@ -47589,7 +47523,7 @@
         <v>20</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="BE192" s="1" t="s">
         <v>113</v>
@@ -47601,7 +47535,7 @@
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>981</v>
@@ -47613,7 +47547,7 @@
         <v>105</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>122</v>
@@ -47631,16 +47565,16 @@
         <v>101</v>
       </c>
       <c r="CC192" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="CD192" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="CD192" s="1" t="s">
+      <c r="CE192" s="1" t="s">
         <v>2617</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CG192" s="1" t="s">
         <v>2618</v>
-      </c>
-      <c r="CG192" s="1" t="s">
-        <v>2619</v>
       </c>
       <c r="CH192" s="1" t="s">
         <v>986</v>
@@ -47681,13 +47615,13 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2621</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2622</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
@@ -47726,7 +47660,7 @@
         <v>42247</v>
       </c>
       <c r="AD193" s="1" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="AF193" s="1" t="s">
         <v>106</v>
@@ -47780,7 +47714,7 @@
         <v>20</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="BE193" s="1" t="s">
         <v>113</v>
@@ -47792,10 +47726,10 @@
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="BI193" s="1" t="s">
         <v>2625</v>
-      </c>
-      <c r="BI193" s="1" t="s">
-        <v>2626</v>
       </c>
       <c r="BM193" s="1" t="s">
         <v>118</v>
@@ -47807,13 +47741,13 @@
         <v>232</v>
       </c>
       <c r="BR193" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="BS193" s="3">
         <v>36580</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -47834,7 +47768,7 @@
         <v>101</v>
       </c>
       <c r="CC193" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="CD193" s="1" t="s">
         <v>301</v>
@@ -47843,10 +47777,10 @@
         <v>1686</v>
       </c>
       <c r="CG193" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="CH193" s="1" t="s">
         <v>2630</v>
-      </c>
-      <c r="CH193" s="1" t="s">
-        <v>2631</v>
       </c>
       <c r="CI193" s="1" t="s">
         <v>130</v>
@@ -47884,13 +47818,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2632</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2633</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2634</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -47971,7 +47905,7 @@
         <v>20</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="BE194" s="1" t="s">
         <v>113</v>
@@ -47983,7 +47917,7 @@
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="BI194" s="1" t="s">
         <v>1954</v>
@@ -47998,13 +47932,13 @@
         <v>119</v>
       </c>
       <c r="BR194" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="BS194" s="3">
         <v>37747</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -48028,10 +47962,10 @@
         <v>689</v>
       </c>
       <c r="CE194" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="CG194" s="1" t="s">
         <v>2639</v>
-      </c>
-      <c r="CG194" s="1" t="s">
-        <v>2640</v>
       </c>
       <c r="CH194" s="1" t="s">
         <v>1961</v>
@@ -48072,13 +48006,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2641</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2642</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2643</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -48162,7 +48096,7 @@
         <v>20</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="BE195" s="1" t="s">
         <v>113</v>
@@ -48174,7 +48108,7 @@
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="BI195" s="1" t="s">
         <v>1071</v>
@@ -48186,7 +48120,7 @@
         <v>105</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -48204,16 +48138,16 @@
         <v>101</v>
       </c>
       <c r="CC195" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="CD195" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="CD195" s="1" t="s">
+      <c r="CE195" s="1" t="s">
         <v>2648</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2649</v>
-      </c>
-      <c r="CG195" s="1" t="s">
-        <v>2650</v>
       </c>
       <c r="CH195" s="1" t="s">
         <v>1077</v>
@@ -48254,13 +48188,13 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2651</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2652</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2653</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
@@ -48344,7 +48278,7 @@
         <v>20</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="BE196" s="1" t="s">
         <v>113</v>
@@ -48356,10 +48290,10 @@
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>118</v>
@@ -48368,7 +48302,7 @@
         <v>105</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -48386,19 +48320,19 @@
         <v>101</v>
       </c>
       <c r="CC196" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="CD196" s="1" t="s">
         <v>2658</v>
       </c>
-      <c r="CD196" s="1" t="s">
+      <c r="CE196" s="1" t="s">
         <v>2659</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CG196" s="1" t="s">
         <v>2660</v>
       </c>
-      <c r="CG196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2661</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2662</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>130</v>
@@ -48436,13 +48370,13 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2663</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2664</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2665</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -48523,7 +48457,7 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="BE197" s="1" t="s">
         <v>113</v>
@@ -48535,10 +48469,10 @@
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="BI197" s="1" t="s">
         <v>2667</v>
-      </c>
-      <c r="BI197" s="1" t="s">
-        <v>2668</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>118</v>
@@ -48550,13 +48484,13 @@
         <v>102</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="BS197" s="3">
         <v>37334</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -48577,16 +48511,16 @@
         <v>530</v>
       </c>
       <c r="CD197" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="CE197" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="CG197" s="1" t="s">
+      <c r="CH197" s="1" t="s">
         <v>2673</v>
-      </c>
-      <c r="CH197" s="1" t="s">
-        <v>2674</v>
       </c>
       <c r="CI197" s="1" t="s">
         <v>130</v>
@@ -48624,13 +48558,13 @@
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2675</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2676</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2677</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -48711,7 +48645,7 @@
         <v>20</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="BE198" s="1" t="s">
         <v>113</v>
@@ -48723,10 +48657,10 @@
         <v>115</v>
       </c>
       <c r="BH198" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="BI198" s="1" t="s">
         <v>2679</v>
-      </c>
-      <c r="BI198" s="1" t="s">
-        <v>2680</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>118</v>
@@ -48738,13 +48672,13 @@
         <v>102</v>
       </c>
       <c r="BR198" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="BS198" s="3">
         <v>37904</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>122</v>
@@ -48765,16 +48699,16 @@
         <v>997</v>
       </c>
       <c r="CD198" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="CE198" s="1" t="s">
         <v>2683</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CG198" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="CG198" s="1" t="s">
+      <c r="CH198" s="1" t="s">
         <v>2685</v>
-      </c>
-      <c r="CH198" s="1" t="s">
-        <v>2686</v>
       </c>
       <c r="CI198" s="1" t="s">
         <v>130</v>
@@ -48794,7 +48728,7 @@
         <v>188</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>101</v>
@@ -48806,19 +48740,19 @@
         <v>94</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2687</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2688</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2689</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -48899,7 +48833,7 @@
         <v>20</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="BE199" s="1" t="s">
         <v>113</v>
@@ -48911,7 +48845,7 @@
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>383</v>
@@ -48926,13 +48860,13 @@
         <v>119</v>
       </c>
       <c r="BR199" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BS199" s="3">
         <v>36111</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -48941,7 +48875,7 @@
         <v>0</v>
       </c>
       <c r="BZ199" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="CA199" s="1" t="s">
         <v>124</v>
@@ -48950,16 +48884,16 @@
         <v>101</v>
       </c>
       <c r="CC199" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="CD199" s="1" t="s">
         <v>1185</v>
       </c>
       <c r="CE199" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="CG199" s="1" t="s">
         <v>2695</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2696</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>390</v>
@@ -49000,13 +48934,13 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2698</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2699</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
@@ -49087,7 +49021,7 @@
         <v>20</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="BE200" s="1" t="s">
         <v>113</v>
@@ -49099,10 +49033,10 @@
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="BI200" s="1" t="s">
         <v>2701</v>
-      </c>
-      <c r="BI200" s="1" t="s">
-        <v>2702</v>
       </c>
       <c r="BM200" s="1" t="s">
         <v>118</v>
@@ -49114,13 +49048,13 @@
         <v>119</v>
       </c>
       <c r="BR200" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="BS200" s="3">
         <v>37785</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -49138,19 +49072,19 @@
         <v>101</v>
       </c>
       <c r="CC200" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="CD200" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="CD200" s="1" t="s">
+      <c r="CE200" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CG200" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="CG200" s="1" t="s">
+      <c r="CH200" s="1" t="s">
         <v>2708</v>
-      </c>
-      <c r="CH200" s="1" t="s">
-        <v>2709</v>
       </c>
       <c r="CI200" s="1" t="s">
         <v>130</v>
@@ -49164,10 +49098,10 @@
         <v>88</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>152</v>
@@ -49182,19 +49116,19 @@
         <v>94</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2712</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2713</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2714</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -49278,7 +49212,7 @@
         <v>20</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="BE201" s="1" t="s">
         <v>113</v>
@@ -49290,10 +49224,10 @@
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="BI201" s="1" t="s">
         <v>2716</v>
-      </c>
-      <c r="BI201" s="1" t="s">
-        <v>2717</v>
       </c>
       <c r="BM201" s="1" t="s">
         <v>118</v>
@@ -49302,7 +49236,7 @@
         <v>105</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -49311,7 +49245,7 @@
         <v>0</v>
       </c>
       <c r="BZ201" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="CA201" s="1" t="s">
         <v>124</v>
@@ -49323,16 +49257,16 @@
         <v>1312</v>
       </c>
       <c r="CD201" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="CE201" s="1" t="s">
         <v>2720</v>
       </c>
-      <c r="CE201" s="1" t="s">
+      <c r="CG201" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="CG201" s="1" t="s">
+      <c r="CH201" s="1" t="s">
         <v>2722</v>
-      </c>
-      <c r="CH201" s="1" t="s">
-        <v>2723</v>
       </c>
       <c r="CI201" s="1" t="s">
         <v>130</v>
@@ -49370,13 +49304,13 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2725</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2726</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
@@ -49454,7 +49388,7 @@
         <v>101</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="BB202" s="1">
         <v>1</v>
@@ -49463,7 +49397,7 @@
         <v>20</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="BE202" s="1" t="s">
         <v>113</v>
@@ -49475,7 +49409,7 @@
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>1071</v>
@@ -49487,7 +49421,7 @@
         <v>105</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -49505,16 +49439,16 @@
         <v>101</v>
       </c>
       <c r="CC202" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="CD202" s="1" t="s">
         <v>2731</v>
       </c>
-      <c r="CD202" s="1" t="s">
+      <c r="CE202" s="1" t="s">
         <v>2732</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CG202" s="1" t="s">
         <v>2733</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2734</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>1077</v>
@@ -49555,13 +49489,13 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2735</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2736</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2737</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -49639,7 +49573,7 @@
         <v>101</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="BB203" s="1">
         <v>1</v>
@@ -49648,7 +49582,7 @@
         <v>20</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="BE203" s="1" t="s">
         <v>113</v>
@@ -49660,7 +49594,7 @@
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="BI203" s="1" t="s">
         <v>1954</v>
@@ -49672,7 +49606,7 @@
         <v>105</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>122</v>
@@ -49690,16 +49624,16 @@
         <v>101</v>
       </c>
       <c r="CC203" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="CD203" s="1" t="s">
         <v>1161</v>
       </c>
       <c r="CE203" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="CG203" s="1" t="s">
         <v>2742</v>
-      </c>
-      <c r="CG203" s="1" t="s">
-        <v>2743</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>1961</v>
@@ -49740,13 +49674,13 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2744</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2745</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2746</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -49824,7 +49758,7 @@
         <v>101</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="BB204" s="1">
         <v>1</v>
@@ -49833,7 +49767,7 @@
         <v>20</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="BE204" s="1" t="s">
         <v>113</v>
@@ -49845,7 +49779,7 @@
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>1071</v>
@@ -49857,7 +49791,7 @@
         <v>105</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>122</v>
@@ -49878,13 +49812,13 @@
         <v>1161</v>
       </c>
       <c r="CD204" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="CE204" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CG204" s="1" t="s">
         <v>2752</v>
-      </c>
-      <c r="CG204" s="1" t="s">
-        <v>2753</v>
       </c>
       <c r="CH204" s="1" t="s">
         <v>1077</v>
@@ -49925,13 +49859,13 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2754</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2755</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2756</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
@@ -50009,7 +49943,7 @@
         <v>101</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="BB205" s="1">
         <v>1</v>
@@ -50018,7 +49952,7 @@
         <v>20</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="BE205" s="1" t="s">
         <v>113</v>
@@ -50030,10 +49964,10 @@
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="BI205" s="1" t="s">
         <v>2759</v>
-      </c>
-      <c r="BI205" s="1" t="s">
-        <v>2760</v>
       </c>
       <c r="BM205" s="1" t="s">
         <v>118</v>
@@ -50048,13 +49982,13 @@
         <v>163</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="BS205" s="3">
         <v>37513</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>122</v>
@@ -50072,19 +50006,19 @@
         <v>101</v>
       </c>
       <c r="CC205" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="CD205" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE205" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="CG205" s="1" t="s">
         <v>2317</v>
       </c>
       <c r="CH205" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="CI205" s="1" t="s">
         <v>130</v>
@@ -50122,13 +50056,13 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2767</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2768</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
@@ -50209,7 +50143,7 @@
         <v>20</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="BE206" s="1" t="s">
         <v>113</v>
@@ -50221,10 +50155,10 @@
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="BI206" s="1" t="s">
         <v>2770</v>
-      </c>
-      <c r="BI206" s="1" t="s">
-        <v>2771</v>
       </c>
       <c r="BM206" s="1" t="s">
         <v>118</v>
@@ -50236,13 +50170,13 @@
         <v>102</v>
       </c>
       <c r="BR206" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="BS206" s="3">
         <v>41024</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -50260,19 +50194,19 @@
         <v>101</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2774</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2775</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="CG206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2777</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2778</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>130</v>
@@ -50310,13 +50244,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2780</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2781</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -50349,7 +50283,7 @@
         <v>106</v>
       </c>
       <c r="AG207" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="AH207" s="1" t="s">
         <v>2003</v>
@@ -50394,7 +50328,7 @@
         <v>101</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="BB207" s="1">
         <v>1</v>
@@ -50403,7 +50337,7 @@
         <v>20</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="BE207" s="1" t="s">
         <v>113</v>
@@ -50415,7 +50349,7 @@
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="BI207" s="1" t="s">
         <v>2016</v>
@@ -50430,13 +50364,13 @@
         <v>119</v>
       </c>
       <c r="BR207" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="BS207" s="3">
         <v>34808</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -50454,16 +50388,16 @@
         <v>101</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2789</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2790</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>2022</v>
@@ -50504,13 +50438,13 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2791</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2792</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2793</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -50585,7 +50519,7 @@
         <v>101</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="BB208" s="1">
         <v>1</v>
@@ -50594,7 +50528,7 @@
         <v>20</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="BE208" s="1" t="s">
         <v>113</v>
@@ -50606,10 +50540,10 @@
         <v>115</v>
       </c>
       <c r="BH208" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="BI208" s="1" t="s">
         <v>2796</v>
-      </c>
-      <c r="BI208" s="1" t="s">
-        <v>2797</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>118</v>
@@ -50621,13 +50555,13 @@
         <v>102</v>
       </c>
       <c r="BR208" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="BS208" s="3">
         <v>37336</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>122</v>
@@ -50645,19 +50579,19 @@
         <v>101</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CG208" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="CG208" s="1" t="s">
+      <c r="CH208" s="1" t="s">
         <v>2803</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2804</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>130</v>
@@ -50695,13 +50629,13 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2805</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2806</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2807</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
@@ -50779,7 +50713,7 @@
         <v>101</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="BB209" s="1">
         <v>1</v>
@@ -50788,7 +50722,7 @@
         <v>20</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="BE209" s="1" t="s">
         <v>113</v>
@@ -50800,10 +50734,10 @@
         <v>115</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2810</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2811</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>118</v>
@@ -50812,7 +50746,7 @@
         <v>105</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>122</v>
@@ -50830,19 +50764,19 @@
         <v>101</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2813</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2814</v>
       </c>
-      <c r="CE209" s="1" t="s">
+      <c r="CG209" s="1" t="s">
         <v>2815</v>
       </c>
-      <c r="CG209" s="1" t="s">
+      <c r="CH209" s="1" t="s">
         <v>2816</v>
-      </c>
-      <c r="CH209" s="1" t="s">
-        <v>2817</v>
       </c>
       <c r="CI209" s="1" t="s">
         <v>130</v>
@@ -50880,13 +50814,13 @@
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2818</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2819</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2820</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>100</v>
@@ -50970,7 +50904,7 @@
         <v>20</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="BE210" s="1" t="s">
         <v>113</v>
@@ -50982,7 +50916,7 @@
         <v>115</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>118</v>
@@ -50991,7 +50925,7 @@
         <v>105</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>122</v>
@@ -51009,16 +50943,16 @@
         <v>101</v>
       </c>
       <c r="CC210" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="CD210" s="1" t="s">
         <v>2824</v>
       </c>
-      <c r="CD210" s="1" t="s">
+      <c r="CE210" s="1" t="s">
         <v>2825</v>
       </c>
-      <c r="CE210" s="1" t="s">
+      <c r="CG210" s="1" t="s">
         <v>2826</v>
-      </c>
-      <c r="CG210" s="1" t="s">
-        <v>2827</v>
       </c>
       <c r="CH210" s="1" t="s">
         <v>130</v>
@@ -51041,7 +50975,7 @@
         <v>90</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>92</v>
@@ -51053,16 +50987,16 @@
         <v>94</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2830</v>
-      </c>
-      <c r="L211" s="1" t="s">
-        <v>2831</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>110</v>
@@ -51131,7 +51065,7 @@
         <v>0</v>
       </c>
       <c r="BZ211" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="CA211" s="1" t="s">
         <v>124</v>
@@ -51140,10 +51074,10 @@
         <v>101</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="212" spans="1:87" x14ac:dyDescent="0.25">
@@ -51175,16 +51109,16 @@
         <v>153</v>
       </c>
       <c r="J212" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="K212" s="1" t="s">
         <v>2833</v>
       </c>
-      <c r="K212" s="1" t="s">
+      <c r="L212" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2835</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2836</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>100</v>
@@ -51219,12 +51153,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2837</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>106</v>
       </c>
@@ -51274,7 +51203,7 @@
         <v>101</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="BB212" s="1">
         <v>1</v>
@@ -51283,7 +51212,7 @@
         <v>20</v>
       </c>
       <c r="BD212" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="BE212" s="1" t="s">
         <v>113</v>
@@ -51295,10 +51224,10 @@
         <v>115</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="BI212" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>118</v>
@@ -51307,7 +51236,7 @@
         <v>105</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>122</v>
@@ -51319,7 +51248,7 @@
         <v>110</v>
       </c>
       <c r="BZ212" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="CA212" s="1" t="s">
         <v>124</v>
@@ -51331,16 +51260,16 @@
         <v>1215</v>
       </c>
       <c r="CD212" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="CE212" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="CG212" s="1" t="s">
         <v>2844</v>
       </c>
-      <c r="CE212" s="1" t="s">
+      <c r="CH212" s="1" t="s">
         <v>2845</v>
-      </c>
-      <c r="CG212" s="1" t="s">
-        <v>2846</v>
-      </c>
-      <c r="CH212" s="1" t="s">
-        <v>2847</v>
       </c>
       <c r="CI212" s="1" t="s">
         <v>130</v>
@@ -51372,16 +51301,16 @@
         <v>94</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>110</v>
@@ -51405,7 +51334,7 @@
         <v>106</v>
       </c>
       <c r="AG213" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="AH213" s="1" t="s">
         <v>61</v>
@@ -51450,7 +51379,7 @@
         <v>0</v>
       </c>
       <c r="BZ213" s="1" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="CA213" s="1" t="s">
         <v>124</v>
@@ -51459,10 +51388,10 @@
         <v>92</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="214" spans="1:87" x14ac:dyDescent="0.25">
@@ -51479,7 +51408,7 @@
         <v>90</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>101</v>
@@ -51491,16 +51420,16 @@
         <v>94</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>110</v>
@@ -51575,7 +51504,7 @@
         <v>0</v>
       </c>
       <c r="BZ214" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="CA214" s="1" t="s">
         <v>124</v>
@@ -51584,10 +51513,10 @@
         <v>101</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -51604,7 +51533,7 @@
         <v>90</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>92</v>
@@ -51616,16 +51545,16 @@
         <v>94</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>110</v>
@@ -51694,7 +51623,7 @@
         <v>0</v>
       </c>
       <c r="BZ215" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="CA215" s="1" t="s">
         <v>124</v>
@@ -51703,10 +51632,10 @@
         <v>101</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="216" spans="1:87" x14ac:dyDescent="0.25">
@@ -51717,13 +51646,13 @@
         <v>88</v>
       </c>
       <c r="C216" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>2502</v>
-      </c>
       <c r="E216" s="1" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>101</v>
@@ -51735,16 +51664,16 @@
         <v>94</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>110</v>
@@ -51768,7 +51697,7 @@
         <v>106</v>
       </c>
       <c r="AG216" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="AH216" s="1" t="s">
         <v>379</v>
@@ -51813,7 +51742,7 @@
         <v>0</v>
       </c>
       <c r="BZ216" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="CA216" s="1" t="s">
         <v>124</v>
@@ -51822,10 +51751,10 @@
         <v>101</v>
       </c>
       <c r="CC216" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="CE216" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="217" spans="1:87" x14ac:dyDescent="0.25">
@@ -51860,10 +51789,10 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>110</v>
@@ -51887,7 +51816,7 @@
         <v>106</v>
       </c>
       <c r="AG217" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="AH217" s="1" t="s">
         <v>379</v>
@@ -51941,10 +51870,10 @@
         <v>101</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="218" spans="1:87" x14ac:dyDescent="0.25">
@@ -51955,13 +51884,13 @@
         <v>88</v>
       </c>
       <c r="C218" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>2502</v>
-      </c>
       <c r="E218" s="1" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>101</v>
@@ -51973,16 +51902,16 @@
         <v>94</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>110</v>
@@ -52006,7 +51935,7 @@
         <v>106</v>
       </c>
       <c r="AG218" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="AH218" s="1" t="s">
         <v>379</v>
@@ -52051,7 +51980,7 @@
         <v>0</v>
       </c>
       <c r="BZ218" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="CA218" s="1" t="s">
         <v>124</v>
@@ -52060,10 +51989,10 @@
         <v>101</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="219" spans="1:87" x14ac:dyDescent="0.25">
@@ -52098,10 +52027,10 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>110</v>
@@ -52125,7 +52054,7 @@
         <v>106</v>
       </c>
       <c r="AG219" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="AH219" s="1" t="s">
         <v>379</v>
@@ -52179,10 +52108,10 @@
         <v>101</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="220" spans="1:87" x14ac:dyDescent="0.25">
@@ -52199,7 +52128,7 @@
         <v>90</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>92</v>
@@ -52211,16 +52140,16 @@
         <v>94</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>110</v>
@@ -52289,7 +52218,7 @@
         <v>0</v>
       </c>
       <c r="BZ220" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="CA220" s="1" t="s">
         <v>124</v>
@@ -52298,10 +52227,10 @@
         <v>101</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="221" spans="1:87" x14ac:dyDescent="0.25">
@@ -52336,10 +52265,10 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>110</v>
@@ -52417,10 +52346,10 @@
         <v>101</v>
       </c>
       <c r="CC221" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="CE221" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="222" spans="1:87" x14ac:dyDescent="0.25">
@@ -52437,7 +52366,7 @@
         <v>90</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>92</v>
@@ -52449,16 +52378,16 @@
         <v>94</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>110</v>
@@ -52527,7 +52456,7 @@
         <v>0</v>
       </c>
       <c r="BZ222" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="CA222" s="1" t="s">
         <v>124</v>
@@ -52536,10 +52465,10 @@
         <v>101</v>
       </c>
       <c r="CC222" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="223" spans="1:87" x14ac:dyDescent="0.25">
@@ -52574,10 +52503,10 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>110</v>
@@ -52655,10 +52584,10 @@
         <v>101</v>
       </c>
       <c r="CC223" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="224" spans="1:87" x14ac:dyDescent="0.25">
@@ -52693,13 +52622,13 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="N224" s="1" t="s">
         <v>2883</v>
-      </c>
-      <c r="L224" s="1" t="s">
-        <v>2884</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2885</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
@@ -52728,12 +52657,7 @@
       <c r="AA224" s="1">
         <v>0</v>
       </c>
-      <c r="AC224" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD224" s="1" t="s">
-        <v>2837</v>
-      </c>
+      <c r="AC224" s="3"/>
       <c r="AF224" s="1" t="s">
         <v>106</v>
       </c>
@@ -52786,7 +52710,7 @@
         <v>20</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="BE224" s="1" t="s">
         <v>113</v>
@@ -52798,7 +52722,7 @@
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="BI224" s="1" t="s">
         <v>383</v>
@@ -52813,13 +52737,13 @@
         <v>102</v>
       </c>
       <c r="BR224" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="BS224" s="3">
         <v>36306</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>122</v>
@@ -52837,16 +52761,16 @@
         <v>101</v>
       </c>
       <c r="CC224" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="CD224" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="CE224" s="1" t="s">
         <v>2890</v>
       </c>
-      <c r="CD224" s="1" t="s">
+      <c r="CG224" s="1" t="s">
         <v>2891</v>
-      </c>
-      <c r="CE224" s="1" t="s">
-        <v>2892</v>
-      </c>
-      <c r="CG224" s="1" t="s">
-        <v>2893</v>
       </c>
       <c r="CH224" s="1" t="s">
         <v>390</v>
@@ -52887,13 +52811,13 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="N225" s="1" t="s">
         <v>2894</v>
-      </c>
-      <c r="L225" s="1" t="s">
-        <v>2895</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2896</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
@@ -52922,12 +52846,7 @@
       <c r="AA225" s="1">
         <v>0</v>
       </c>
-      <c r="AC225" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD225" s="1" t="s">
-        <v>2837</v>
-      </c>
+      <c r="AC225" s="3"/>
       <c r="AF225" s="1" t="s">
         <v>106</v>
       </c>
@@ -52983,7 +52902,7 @@
         <v>20</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="BE225" s="1" t="s">
         <v>113</v>
@@ -52995,7 +52914,7 @@
         <v>115</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="BI225" s="1" t="s">
         <v>1071</v>
@@ -53007,7 +52926,7 @@
         <v>105</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>122</v>
@@ -53025,16 +52944,16 @@
         <v>101</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="CG225" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="CH225" s="1" t="s">
         <v>1077</v>
@@ -53075,13 +52994,13 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="N226" s="1" t="s">
         <v>2903</v>
-      </c>
-      <c r="L226" s="1" t="s">
-        <v>2904</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2905</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>100</v>
@@ -53113,12 +53032,7 @@
       <c r="AB226" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AC226" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD226" s="1" t="s">
-        <v>2837</v>
-      </c>
+      <c r="AC226" s="3"/>
       <c r="AF226" s="1" t="s">
         <v>106</v>
       </c>
@@ -53171,7 +53085,7 @@
         <v>20</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="BE226" s="1" t="s">
         <v>113</v>
@@ -53183,7 +53097,7 @@
         <v>115</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="BI226" s="1" t="s">
         <v>383</v>
@@ -53198,13 +53112,13 @@
         <v>102</v>
       </c>
       <c r="BR226" s="1" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="BS226" s="3">
         <v>38234</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>122</v>
@@ -53222,16 +53136,16 @@
         <v>101</v>
       </c>
       <c r="CC226" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="CD226" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="CG226" s="1" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>390</v>
@@ -53272,13 +53186,13 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="N227" s="1" t="s">
         <v>2913</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2914</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2915</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>100</v>
@@ -53307,12 +53221,7 @@
       <c r="AA227" s="1">
         <v>0</v>
       </c>
-      <c r="AC227" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD227" s="1" t="s">
-        <v>2837</v>
-      </c>
+      <c r="AC227" s="3"/>
       <c r="AF227" s="1" t="s">
         <v>106</v>
       </c>
@@ -53368,7 +53277,7 @@
         <v>20</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="BE227" s="1" t="s">
         <v>113</v>
@@ -53380,10 +53289,10 @@
         <v>115</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="BI227" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>118</v>
@@ -53392,7 +53301,7 @@
         <v>105</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>122</v>
@@ -53410,19 +53319,19 @@
         <v>101</v>
       </c>
       <c r="CC227" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="CD227" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="CE227" s="1" t="s">
         <v>2919</v>
       </c>
-      <c r="CD227" s="1" t="s">
+      <c r="CG227" s="1" t="s">
         <v>2920</v>
       </c>
-      <c r="CE227" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="CG227" s="1" t="s">
-        <v>2922</v>
-      </c>
       <c r="CH227" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="CI227" s="1" t="s">
         <v>130</v>
@@ -53460,13 +53369,13 @@
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="N228" s="1" t="s">
         <v>2923</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2924</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>2925</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>100</v>
@@ -53495,12 +53404,7 @@
       <c r="AA228" s="1">
         <v>0</v>
       </c>
-      <c r="AC228" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD228" s="1" t="s">
-        <v>2837</v>
-      </c>
+      <c r="AC228" s="3"/>
       <c r="AF228" s="1" t="s">
         <v>106</v>
       </c>
@@ -53553,7 +53457,7 @@
         <v>20</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="BE228" s="1" t="s">
         <v>113</v>
@@ -53565,10 +53469,10 @@
         <v>115</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="BI228" s="1" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>118</v>
@@ -53580,13 +53484,13 @@
         <v>232</v>
       </c>
       <c r="BR228" s="1" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="BS228" s="3">
         <v>37069</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>122</v>
@@ -53607,16 +53511,16 @@
         <v>782</v>
       </c>
       <c r="CD228" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="CE228" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="CG228" s="1" t="s">
         <v>2931</v>
       </c>
-      <c r="CE228" s="1" t="s">
+      <c r="CH228" s="1" t="s">
         <v>2932</v>
-      </c>
-      <c r="CG228" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="CH228" s="1" t="s">
-        <v>2934</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>130</v>
@@ -53654,13 +53558,13 @@
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="N229" s="1" t="s">
         <v>2935</v>
-      </c>
-      <c r="L229" s="1" t="s">
-        <v>2936</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2937</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>100</v>
@@ -53689,12 +53593,7 @@
       <c r="AA229" s="1">
         <v>0</v>
       </c>
-      <c r="AC229" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD229" s="1" t="s">
-        <v>2837</v>
-      </c>
+      <c r="AC229" s="3"/>
       <c r="AF229" s="1" t="s">
         <v>106</v>
       </c>
@@ -53750,7 +53649,7 @@
         <v>20</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="BE229" s="1" t="s">
         <v>113</v>
@@ -53762,10 +53661,10 @@
         <v>115</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="BI229" s="1" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>118</v>
@@ -53774,7 +53673,7 @@
         <v>105</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>122</v>
@@ -53792,19 +53691,19 @@
         <v>101</v>
       </c>
       <c r="CC229" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="CD229" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="CE229" s="1" t="s">
         <v>2942</v>
       </c>
-      <c r="CD229" s="1" t="s">
+      <c r="CG229" s="1" t="s">
         <v>2943</v>
       </c>
-      <c r="CE229" s="1" t="s">
+      <c r="CH229" s="1" t="s">
         <v>2944</v>
-      </c>
-      <c r="CG229" s="1" t="s">
-        <v>2945</v>
-      </c>
-      <c r="CH229" s="1" t="s">
-        <v>2946</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>130</v>
@@ -53842,13 +53741,13 @@
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="N230" s="1" t="s">
         <v>2947</v>
-      </c>
-      <c r="L230" s="1" t="s">
-        <v>2948</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2949</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>100</v>
@@ -53877,12 +53776,7 @@
       <c r="AA230" s="1">
         <v>0</v>
       </c>
-      <c r="AC230" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD230" s="1" t="s">
-        <v>2950</v>
-      </c>
+      <c r="AC230" s="3"/>
       <c r="AF230" s="1" t="s">
         <v>106</v>
       </c>
@@ -53929,7 +53823,7 @@
         <v>101</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="BB230" s="1">
         <v>1</v>
@@ -53938,7 +53832,7 @@
         <v>20</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="BE230" s="1" t="s">
         <v>113</v>
@@ -53950,10 +53844,10 @@
         <v>115</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="BI230" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="BJ230" s="1" t="s">
         <v>893</v>
@@ -53968,13 +53862,13 @@
         <v>232</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="BS230" s="3">
         <v>35125</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>122</v>
@@ -53992,19 +53886,19 @@
         <v>101</v>
       </c>
       <c r="CC230" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="CD230" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="CG230" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="CH230" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="CI230" s="1" t="s">
         <v>900</v>
@@ -54042,13 +53936,13 @@
         <v>393</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>100</v>
@@ -54132,7 +54026,7 @@
         <v>20</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="BG231" s="1" t="s">
         <v>115</v>
@@ -54141,7 +54035,7 @@
         <v>118</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>122</v>
@@ -54159,13 +54053,13 @@
         <v>92</v>
       </c>
       <c r="CC231" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="CG231" s="1" t="s">
         <v>130</v>
@@ -54209,13 +54103,13 @@
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>100</v>
@@ -54299,7 +54193,7 @@
         <v>20</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="BG232" s="1" t="s">
         <v>115</v>
@@ -54308,7 +54202,7 @@
         <v>118</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>122</v>
@@ -54329,10 +54223,10 @@
         <v>570</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="CG232" s="1" t="s">
         <v>130</v>
@@ -54376,13 +54270,13 @@
         <v>393</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>100</v>
@@ -54469,7 +54363,7 @@
         <v>20</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="BE233" s="1" t="s">
         <v>113</v>
@@ -54481,13 +54375,13 @@
         <v>115</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>122</v>
@@ -54505,16 +54399,16 @@
         <v>101</v>
       </c>
       <c r="CC233" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="CD233" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="CE233" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="CG233" s="1" t="s">
         <v>2982</v>
-      </c>
-      <c r="CD233" s="1" t="s">
-        <v>2983</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2984</v>
-      </c>
-      <c r="CG233" s="1" t="s">
-        <v>2985</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>130</v>
@@ -54549,7 +54443,7 @@
         <v>94</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>96</v>
@@ -54558,10 +54452,10 @@
         <v>258</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="N234" s="1" t="s">
         <v>260</v>
@@ -54591,7 +54485,7 @@
         <v>42582</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>106</v>
@@ -54648,13 +54542,13 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="BI234" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>118</v>
@@ -54699,10 +54593,10 @@
         <v>270</v>
       </c>
       <c r="CG234" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="CH234" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="CI234" s="1" t="s">
         <v>130</v>
@@ -54722,7 +54616,7 @@
         <v>188</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>92</v>
@@ -54734,22 +54628,22 @@
         <v>94</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="Q235" s="3">
         <v>17060</v>
@@ -54782,13 +54676,13 @@
         <v>42628</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG235" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="AH235" s="1" t="s">
         <v>138</v>
@@ -54833,22 +54727,22 @@
         <v>101</v>
       </c>
       <c r="AZ235" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="BB235" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC235" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD235" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="BH235" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="BI235" s="1" t="s">
         <v>3002</v>
-      </c>
-      <c r="BB235" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC235" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD235" s="1" t="s">
-        <v>3003</v>
-      </c>
-      <c r="BH235" s="1" t="s">
-        <v>3004</v>
-      </c>
-      <c r="BI235" s="1" t="s">
-        <v>3005</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>118</v>
@@ -54857,7 +54751,7 @@
         <v>105</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>122</v>
@@ -54866,7 +54760,7 @@
         <v>0</v>
       </c>
       <c r="BZ235" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="CA235" s="1" t="s">
         <v>124</v>
@@ -54881,13 +54775,13 @@
         <v>126</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="CG235" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="CH235" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="CI235" s="1" t="s">
         <v>130</v>
@@ -54907,7 +54801,7 @@
         <v>188</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>101</v>
@@ -54919,22 +54813,22 @@
         <v>94</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="Q236" s="3">
         <v>26864</v>
@@ -54964,7 +54858,7 @@
         <v>42735</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>106</v>
@@ -55018,10 +54912,10 @@
         <v>0</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>118</v>
@@ -55033,13 +54927,13 @@
         <v>232</v>
       </c>
       <c r="BR236" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="BS236" s="3">
         <v>102</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>122</v>
@@ -55051,7 +54945,7 @@
         <v>110</v>
       </c>
       <c r="BZ236" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="CA236" s="1" t="s">
         <v>124</v>
@@ -55060,16 +54954,16 @@
         <v>101</v>
       </c>
       <c r="CC236" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="CD236" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="CE236" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="CG236" s="1" t="s">
         <v>3021</v>
-      </c>
-      <c r="CD236" s="1" t="s">
-        <v>3022</v>
-      </c>
-      <c r="CE236" s="1" t="s">
-        <v>3023</v>
-      </c>
-      <c r="CG236" s="1" t="s">
-        <v>3024</v>
       </c>
       <c r="CH236" s="1" t="s">
         <v>130</v>
@@ -55113,10 +55007,10 @@
         <v>1907</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="N237" s="1" t="s">
         <v>1909</v>
@@ -55149,7 +55043,7 @@
         <v>39800</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>244</v>
@@ -55203,10 +55097,10 @@
         <v>0</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>118</v>
@@ -55257,7 +55151,7 @@
         <v>1915</v>
       </c>
       <c r="CG237" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>130</v>
@@ -55280,7 +55174,7 @@
         <v>90</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>101</v>
@@ -55292,22 +55186,22 @@
         <v>94</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="Q238" s="3">
         <v>17470</v>
@@ -55337,7 +55231,7 @@
         <v>43100</v>
       </c>
       <c r="AD238" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="AF238" s="1" t="s">
         <v>106</v>
@@ -55394,10 +55288,10 @@
         <v>0</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>118</v>
@@ -55406,7 +55300,7 @@
         <v>105</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>122</v>
@@ -55430,16 +55324,16 @@
         <v>101</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="CD238" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>130</v>
@@ -55480,16 +55374,16 @@
         <v>96</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="Q239" s="3">
         <v>23356</v>
@@ -55516,7 +55410,7 @@
         <v>43105</v>
       </c>
       <c r="AD239" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="AF239" s="1" t="s">
         <v>106</v>
@@ -55570,10 +55464,10 @@
         <v>0</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>118</v>
@@ -55585,13 +55479,13 @@
         <v>102</v>
       </c>
       <c r="BR239" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="BS239" s="3">
         <v>34412</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>122</v>
@@ -55600,7 +55494,7 @@
         <v>0</v>
       </c>
       <c r="BZ239" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="CA239" s="1" t="s">
         <v>124</v>
@@ -55609,16 +55503,16 @@
         <v>101</v>
       </c>
       <c r="CC239" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="CD239" s="1" t="s">
         <v>2378</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="CG239" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>130</v>
@@ -55659,16 +55553,16 @@
         <v>96</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="Q240" s="3">
         <v>17726</v>
@@ -55701,7 +55595,7 @@
         <v>43312</v>
       </c>
       <c r="AD240" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="AF240" s="1" t="s">
         <v>244</v>
@@ -55752,7 +55646,7 @@
         <v>101</v>
       </c>
       <c r="AZ240" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="BB240" s="1">
         <v>0</v>
@@ -55761,10 +55655,10 @@
         <v>0</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>118</v>
@@ -55773,7 +55667,7 @@
         <v>105</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>122</v>
@@ -55782,7 +55676,7 @@
         <v>0</v>
       </c>
       <c r="BZ240" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="CA240" s="1" t="s">
         <v>124</v>
@@ -55791,16 +55685,16 @@
         <v>101</v>
       </c>
       <c r="CC240" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="CD240" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="CE240" s="1" t="s">
         <v>932</v>
       </c>
       <c r="CG240" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>130</v>
@@ -55841,16 +55735,16 @@
         <v>96</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="Q241" s="3">
         <v>17041</v>
@@ -55877,7 +55771,7 @@
         <v>42735</v>
       </c>
       <c r="AD241" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="AF241" s="1" t="s">
         <v>106</v>
@@ -55934,10 +55828,10 @@
         <v>0</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>118</v>
@@ -55946,7 +55840,7 @@
         <v>105</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>122</v>
@@ -55958,7 +55852,7 @@
         <v>110</v>
       </c>
       <c r="BZ241" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="CA241" s="1" t="s">
         <v>124</v>
@@ -55967,16 +55861,16 @@
         <v>101</v>
       </c>
       <c r="CC241" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="CD241" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="CE241" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="CG241" s="1" t="s">
         <v>3067</v>
-      </c>
-      <c r="CD241" s="1" t="s">
-        <v>3068</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>3069</v>
-      </c>
-      <c r="CG241" s="1" t="s">
-        <v>3070</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>130</v>
@@ -55999,7 +55893,7 @@
         <v>188</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>101</v>
@@ -56011,22 +55905,22 @@
         <v>94</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="Q242" s="3">
         <v>30147</v>
@@ -56049,17 +55943,12 @@
       <c r="AA242" s="1">
         <v>0</v>
       </c>
-      <c r="AC242" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD242" s="1" t="s">
-        <v>2837</v>
-      </c>
+      <c r="AC242" s="3"/>
       <c r="AF242" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG242" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="AH242" s="1" t="s">
         <v>379</v>
@@ -56107,10 +55996,10 @@
         <v>0</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>118</v>
@@ -56122,13 +56011,13 @@
         <v>102</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="BS242" s="3">
         <v>37124</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>122</v>
@@ -56137,7 +56026,7 @@
         <v>0</v>
       </c>
       <c r="BZ242" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="CA242" s="1" t="s">
         <v>124</v>
@@ -56146,16 +56035,16 @@
         <v>101</v>
       </c>
       <c r="CC242" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="CD242" s="1" t="s">
         <v>1185</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>130</v>
@@ -56178,7 +56067,7 @@
         <v>188</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>101</v>
@@ -56190,22 +56079,22 @@
         <v>94</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="Q243" s="3">
         <v>17821</v>
@@ -56241,13 +56130,13 @@
         <v>43388</v>
       </c>
       <c r="AD243" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="AF243" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG243" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="AH243" s="1" t="s">
         <v>1286</v>
@@ -56292,7 +56181,7 @@
         <v>101</v>
       </c>
       <c r="AZ243" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="BB243" s="1">
         <v>0</v>
@@ -56301,10 +56190,10 @@
         <v>0</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>118</v>
@@ -56313,7 +56202,7 @@
         <v>105</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>122</v>
@@ -56331,16 +56220,16 @@
         <v>101</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="CD243" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="CE243" s="1" t="s">
         <v>517</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>130</v>
@@ -56354,10 +56243,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1284</v>
@@ -56372,7 +56261,7 @@
         <v>93</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1284</v>
@@ -56381,13 +56270,13 @@
         <v>152</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -56441,7 +56330,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -56474,7 +56363,7 @@
         <v>20</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="BE244" s="1" t="s">
         <v>113</v>
@@ -56486,13 +56375,13 @@
         <v>115</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>122</v>
@@ -56510,16 +56399,16 @@
         <v>101</v>
       </c>
       <c r="CC244" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="CD244" s="1" t="s">
         <v>313</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>130</v>
@@ -56533,10 +56422,10 @@
         <v>87</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1284</v>
@@ -56551,7 +56440,7 @@
         <v>93</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1284</v>
@@ -56560,13 +56449,13 @@
         <v>152</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -56617,7 +56506,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -56653,7 +56542,7 @@
         <v>20</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="BE245" s="1" t="s">
         <v>113</v>
@@ -56665,13 +56554,13 @@
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -56698,10 +56587,10 @@
         <v>1110</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>130</v>
@@ -56715,10 +56604,10 @@
         <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1284</v>
@@ -56733,7 +56622,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1284</v>
@@ -56742,13 +56631,13 @@
         <v>152</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -56799,7 +56688,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="AO246" s="1">
         <v>0</v>
@@ -56835,7 +56724,7 @@
         <v>20</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="BE246" s="1" t="s">
         <v>113</v>
@@ -56847,13 +56736,13 @@
         <v>115</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>122</v>
@@ -56874,16 +56763,16 @@
         <v>101</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="CD246" s="1" t="s">
+        <v>3120</v>
+      </c>
+      <c r="CE246" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="CG246" s="1" t="s">
         <v>3122</v>
-      </c>
-      <c r="CD246" s="1" t="s">
-        <v>3123</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>3124</v>
-      </c>
-      <c r="CG246" s="1" t="s">
-        <v>3125</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>130</v>
@@ -56897,10 +56786,10 @@
         <v>87</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1284</v>
@@ -56915,7 +56804,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1284</v>
@@ -56924,13 +56813,13 @@
         <v>152</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -57017,7 +56906,7 @@
         <v>20</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="BE247" s="1" t="s">
         <v>113</v>
@@ -57029,13 +56918,13 @@
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -57056,7 +56945,7 @@
         <v>101</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="CD247" s="1" t="s">
         <v>613</v>
@@ -57065,7 +56954,7 @@
         <v>517</v>
       </c>
       <c r="CG247" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>130</v>
@@ -57079,10 +56968,10 @@
         <v>87</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1284</v>
@@ -57097,7 +56986,7 @@
         <v>93</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1284</v>
@@ -57106,13 +56995,13 @@
         <v>152</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -57166,7 +57055,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="AO248" s="1">
         <v>0</v>
@@ -57202,7 +57091,7 @@
         <v>20</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="BE248" s="1" t="s">
         <v>113</v>
@@ -57214,13 +57103,13 @@
         <v>115</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -57244,13 +57133,13 @@
         <v>501</v>
       </c>
       <c r="CD248" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="CG248" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>130</v>
@@ -57264,10 +57153,10 @@
         <v>87</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1284</v>
@@ -57282,7 +57171,7 @@
         <v>93</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1284</v>
@@ -57291,13 +57180,13 @@
         <v>152</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
@@ -57384,7 +57273,7 @@
         <v>20</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="BE249" s="1" t="s">
         <v>113</v>
@@ -57396,13 +57285,13 @@
         <v>115</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -57423,16 +57312,16 @@
         <v>101</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="CD249" s="1" t="s">
         <v>627</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>130</v>
@@ -57446,10 +57335,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1284</v>
@@ -57464,7 +57353,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1284</v>
@@ -57473,13 +57362,13 @@
         <v>152</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
@@ -57515,7 +57404,7 @@
         <v>106</v>
       </c>
       <c r="AG250" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="AH250" s="1" t="s">
         <v>1286</v>
@@ -57533,7 +57422,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -57569,7 +57458,7 @@
         <v>20</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="BE250" s="1" t="s">
         <v>113</v>
@@ -57581,13 +57470,13 @@
         <v>115</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>122</v>
@@ -57608,16 +57497,16 @@
         <v>101</v>
       </c>
       <c r="CC250" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="CD250" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="CG250" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>130</v>
@@ -57631,10 +57520,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1284</v>
@@ -57649,7 +57538,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1284</v>
@@ -57658,13 +57547,13 @@
         <v>152</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
@@ -57718,7 +57607,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -57754,7 +57643,7 @@
         <v>20</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="BE251" s="1" t="s">
         <v>113</v>
@@ -57766,13 +57655,13 @@
         <v>115</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -57796,13 +57685,13 @@
         <v>1022</v>
       </c>
       <c r="CD251" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="CE251" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="CG251" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>130</v>
@@ -57816,10 +57705,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1284</v>
@@ -57834,7 +57723,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1284</v>
@@ -57843,13 +57732,13 @@
         <v>152</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
@@ -57903,7 +57792,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -57939,7 +57828,7 @@
         <v>20</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="BE252" s="1" t="s">
         <v>113</v>
@@ -57951,13 +57840,13 @@
         <v>115</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>122</v>
@@ -57984,10 +57873,10 @@
         <v>2210</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="CG252" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>130</v>
@@ -58001,10 +57890,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1284</v>
@@ -58019,7 +57908,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1284</v>
@@ -58028,13 +57917,13 @@
         <v>152</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="L253" s="1" t="s">
         <v>2320</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
@@ -58070,7 +57959,7 @@
         <v>106</v>
       </c>
       <c r="AG253" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="AH253" s="1" t="s">
         <v>1286</v>
@@ -58085,7 +57974,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="AO253" s="1">
         <v>0</v>
@@ -58118,19 +58007,19 @@
         <v>20</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>122</v>
@@ -58148,16 +58037,16 @@
         <v>101</v>
       </c>
       <c r="CC253" s="1" t="s">
+        <v>3184</v>
+      </c>
+      <c r="CD253" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="CE253" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="CG253" s="1" t="s">
         <v>3187</v>
-      </c>
-      <c r="CD253" s="1" t="s">
-        <v>3188</v>
-      </c>
-      <c r="CE253" s="1" t="s">
-        <v>3189</v>
-      </c>
-      <c r="CG253" s="1" t="s">
-        <v>3190</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>130</v>
@@ -58171,10 +58060,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1284</v>
@@ -58189,7 +58078,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1284</v>
@@ -58198,13 +58087,13 @@
         <v>152</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="L254" s="1" t="s">
         <v>2330</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
@@ -58288,19 +58177,19 @@
         <v>20</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
@@ -58321,16 +58210,16 @@
         <v>2258</v>
       </c>
       <c r="CC254" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="CD254" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="CE254" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="CG254" s="1" t="s">
         <v>3196</v>
-      </c>
-      <c r="CD254" s="1" t="s">
-        <v>3197</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>3198</v>
-      </c>
-      <c r="CG254" s="1" t="s">
-        <v>3199</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -58344,10 +58233,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1284</v>
@@ -58362,7 +58251,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1284</v>
@@ -58371,13 +58260,13 @@
         <v>152</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
@@ -58461,19 +58350,19 @@
         <v>20</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -58494,13 +58383,13 @@
         <v>1229</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>130</v>
@@ -58514,10 +58403,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1284</v>
@@ -58532,7 +58421,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1284</v>
@@ -58541,13 +58430,13 @@
         <v>152</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
@@ -58598,7 +58487,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -58634,7 +58523,7 @@
         <v>20</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="BE256" s="1" t="s">
         <v>113</v>
@@ -58646,13 +58535,13 @@
         <v>115</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -58673,16 +58562,16 @@
         <v>101</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="CD256" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="CG256" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>130</v>
@@ -58696,10 +58585,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1284</v>
@@ -58714,7 +58603,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1284</v>
@@ -58723,13 +58612,13 @@
         <v>152</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
@@ -58783,7 +58672,7 @@
         <v>0</v>
       </c>
       <c r="AN257" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="AO257" s="1">
         <v>0</v>
@@ -58819,7 +58708,7 @@
         <v>20</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="BE257" s="1" t="s">
         <v>113</v>
@@ -58831,13 +58720,13 @@
         <v>115</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -58858,16 +58747,16 @@
         <v>101</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="CD257" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="CG257" s="1" t="s">
         <v>3224</v>
-      </c>
-      <c r="CD257" s="1" t="s">
-        <v>3225</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3226</v>
-      </c>
-      <c r="CG257" s="1" t="s">
-        <v>3227</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>130</v>
@@ -58881,10 +58770,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1284</v>
@@ -58899,7 +58788,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1284</v>
@@ -58908,13 +58797,13 @@
         <v>152</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
@@ -58968,7 +58857,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="AO258" s="1">
         <v>0</v>
@@ -59004,7 +58893,7 @@
         <v>20</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="BE258" s="1" t="s">
         <v>113</v>
@@ -59016,13 +58905,13 @@
         <v>115</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>122</v>
@@ -59043,16 +58932,16 @@
         <v>101</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="CD258" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="CG258" s="1" t="s">
         <v>3234</v>
-      </c>
-      <c r="CD258" s="1" t="s">
-        <v>3235</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3236</v>
-      </c>
-      <c r="CG258" s="1" t="s">
-        <v>3237</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>130</v>
@@ -59066,10 +58955,10 @@
         <v>87</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1284</v>
@@ -59084,7 +58973,7 @@
         <v>93</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>1284</v>
@@ -59093,13 +58982,13 @@
         <v>152</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
@@ -59186,7 +59075,7 @@
         <v>20</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="BE259" s="1" t="s">
         <v>113</v>
@@ -59198,13 +59087,13 @@
         <v>115</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -59225,16 +59114,16 @@
         <v>101</v>
       </c>
       <c r="CC259" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="CE259" s="1" t="s">
         <v>219</v>
       </c>
       <c r="CG259" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>130</v>
@@ -59248,10 +59137,10 @@
         <v>87</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1284</v>
@@ -59266,7 +59155,7 @@
         <v>93</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I260" s="1" t="s">
         <v>1284</v>
@@ -59275,13 +59164,13 @@
         <v>152</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
@@ -59335,7 +59224,7 @@
         <v>0</v>
       </c>
       <c r="AN260" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="AO260" s="1">
         <v>0</v>
@@ -59371,7 +59260,7 @@
         <v>20</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="BE260" s="1" t="s">
         <v>113</v>
@@ -59383,19 +59272,19 @@
         <v>115</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW260" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="BX260" s="1">
         <v>0</v>
@@ -59413,16 +59302,16 @@
         <v>101</v>
       </c>
       <c r="CC260" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="CD260" s="1" t="s">
         <v>1294</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="CG260" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>130</v>
@@ -59436,10 +59325,10 @@
         <v>87</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1284</v>
@@ -59454,7 +59343,7 @@
         <v>93</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>1284</v>
@@ -59463,13 +59352,13 @@
         <v>152</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
@@ -59520,7 +59409,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="AO261" s="1">
         <v>0</v>
@@ -59556,7 +59445,7 @@
         <v>20</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="BE261" s="1" t="s">
         <v>113</v>
@@ -59568,13 +59457,13 @@
         <v>115</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>122</v>
@@ -59595,16 +59484,16 @@
         <v>101</v>
       </c>
       <c r="CC261" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="CG261" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>130</v>
@@ -59618,10 +59507,10 @@
         <v>87</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1284</v>
@@ -59636,7 +59525,7 @@
         <v>93</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>1284</v>
@@ -59645,13 +59534,13 @@
         <v>152</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>100</v>
@@ -59678,7 +59567,7 @@
         <v>0</v>
       </c>
       <c r="AG262" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="AH262" s="1" t="s">
         <v>379</v>
@@ -59693,7 +59582,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="AO262" s="1">
         <v>0</v>
@@ -59723,7 +59612,7 @@
         <v>20</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="BE262" s="1" t="s">
         <v>113</v>
@@ -59735,13 +59624,13 @@
         <v>115</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>122</v>
@@ -59759,16 +59648,16 @@
         <v>101</v>
       </c>
       <c r="CC262" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="CD262" s="1" t="s">
         <v>313</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="CG262" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>130</v>
@@ -59782,10 +59671,10 @@
         <v>87</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1284</v>
@@ -59800,7 +59689,7 @@
         <v>93</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>1284</v>
@@ -59809,13 +59698,13 @@
         <v>152</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>100</v>
@@ -59899,7 +59788,7 @@
         <v>20</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="BE263" s="1" t="s">
         <v>113</v>
@@ -59911,13 +59800,13 @@
         <v>115</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>122</v>
@@ -59935,16 +59824,16 @@
         <v>101</v>
       </c>
       <c r="CC263" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="CD263" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="CE263" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="CG263" s="1" t="s">
         <v>3280</v>
-      </c>
-      <c r="CD263" s="1" t="s">
-        <v>3281</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>3282</v>
-      </c>
-      <c r="CG263" s="1" t="s">
-        <v>3283</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>130</v>
@@ -59958,10 +59847,10 @@
         <v>87</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1284</v>
@@ -59976,7 +59865,7 @@
         <v>93</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>1284</v>
@@ -59985,13 +59874,13 @@
         <v>152</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>100</v>
@@ -60078,7 +59967,7 @@
         <v>20</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="BE264" s="1" t="s">
         <v>113</v>
@@ -60090,13 +59979,13 @@
         <v>115</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>122</v>
@@ -60114,16 +60003,16 @@
         <v>101</v>
       </c>
       <c r="CC264" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="CD264" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="CE264" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="CG264" s="1" t="s">
         <v>3290</v>
-      </c>
-      <c r="CD264" s="1" t="s">
-        <v>3291</v>
-      </c>
-      <c r="CE264" s="1" t="s">
-        <v>3292</v>
-      </c>
-      <c r="CG264" s="1" t="s">
-        <v>3293</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>130</v>
@@ -60137,10 +60026,10 @@
         <v>87</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1284</v>
@@ -60155,7 +60044,7 @@
         <v>93</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>1284</v>
@@ -60164,13 +60053,13 @@
         <v>152</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>100</v>
@@ -60179,7 +60068,7 @@
         <v>101</v>
       </c>
       <c r="Q265" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="R265" s="1" t="s">
         <v>136</v>
@@ -60221,7 +60110,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="AO265" s="1">
         <v>0</v>
@@ -60254,7 +60143,7 @@
         <v>20</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="BE265" s="1" t="s">
         <v>113</v>
@@ -60266,13 +60155,13 @@
         <v>115</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>122</v>
@@ -60290,16 +60179,16 @@
         <v>101</v>
       </c>
       <c r="CC265" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="CD265" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="CE265" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="CG265" s="1" t="s">
         <v>3301</v>
-      </c>
-      <c r="CD265" s="1" t="s">
-        <v>3302</v>
-      </c>
-      <c r="CE265" s="1" t="s">
-        <v>3303</v>
-      </c>
-      <c r="CG265" s="1" t="s">
-        <v>3304</v>
       </c>
       <c r="CH265" s="1" t="s">
         <v>130</v>
@@ -60309,6 +60198,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI265" xr:uid="{85A90817-87E6-45A0-973E-F310DC66084A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>